--- a/po forecast comparison/B0BF73P6HY_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BF73P6HY_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1108 +453,1623 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44914</v>
+        <v>44920</v>
       </c>
       <c r="B2" t="n">
         <v>68</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44949</v>
+        <v>44955</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>44956</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44963</v>
+        <v>44969</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>44970</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44984</v>
+        <v>44990</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44991</v>
+        <v>44997</v>
       </c>
       <c r="B8" t="n">
         <v>13</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44998</v>
+        <v>45004</v>
       </c>
       <c r="B9" t="n">
         <v>9</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45005</v>
+        <v>45011</v>
       </c>
       <c r="B10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45012</v>
+        <v>45018</v>
       </c>
       <c r="B11" t="n">
         <v>11</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45019</v>
+        <v>45025</v>
       </c>
       <c r="B12" t="n">
         <v>13</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45026</v>
+        <v>45032</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45033</v>
+        <v>45039</v>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45040</v>
+        <v>45046</v>
       </c>
       <c r="B15" t="n">
         <v>15</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45047</v>
+        <v>45053</v>
       </c>
       <c r="B16" t="n">
         <v>18</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45054</v>
+        <v>45060</v>
       </c>
       <c r="B17" t="n">
         <v>18</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45061</v>
+        <v>45067</v>
       </c>
       <c r="B18" t="n">
         <v>7</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45068</v>
+        <v>45074</v>
       </c>
       <c r="B19" t="n">
         <v>10</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45075</v>
+        <v>45081</v>
       </c>
       <c r="B20" t="n">
         <v>8</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45082</v>
+        <v>45088</v>
       </c>
       <c r="B21" t="n">
         <v>12</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45089</v>
+        <v>45095</v>
       </c>
       <c r="B22" t="n">
         <v>15</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45096</v>
+        <v>45102</v>
       </c>
       <c r="B23" t="n">
         <v>17</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45103</v>
+        <v>45109</v>
       </c>
       <c r="B24" t="n">
         <v>26</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45110</v>
+        <v>45116</v>
       </c>
       <c r="B25" t="n">
         <v>15</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45117</v>
+        <v>45123</v>
       </c>
       <c r="B26" t="n">
         <v>4</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45124</v>
+        <v>45130</v>
       </c>
       <c r="B27" t="n">
         <v>17</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45131</v>
+        <v>45137</v>
       </c>
       <c r="B28" t="n">
         <v>31</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45138</v>
+        <v>45144</v>
       </c>
       <c r="B29" t="n">
         <v>10</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45145</v>
+        <v>45151</v>
       </c>
       <c r="B30" t="n">
         <v>9</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45152</v>
+        <v>45158</v>
       </c>
       <c r="B31" t="n">
         <v>9</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45159</v>
+        <v>45165</v>
       </c>
       <c r="B32" t="n">
         <v>8</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45166</v>
+        <v>45172</v>
       </c>
       <c r="B33" t="n">
         <v>10</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45173</v>
+        <v>45179</v>
       </c>
       <c r="B34" t="n">
         <v>10</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45180</v>
+        <v>45186</v>
       </c>
       <c r="B35" t="n">
         <v>7</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45187</v>
+        <v>45193</v>
       </c>
       <c r="B36" t="n">
         <v>9</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45194</v>
+        <v>45200</v>
       </c>
       <c r="B37" t="n">
         <v>6</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45201</v>
+        <v>45207</v>
       </c>
       <c r="B38" t="n">
         <v>5</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45208</v>
+        <v>45214</v>
       </c>
       <c r="B39" t="n">
         <v>11</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45215</v>
+        <v>45221</v>
       </c>
       <c r="B40" t="n">
         <v>10</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45222</v>
+        <v>45228</v>
       </c>
       <c r="B41" t="n">
         <v>6</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45229</v>
+        <v>45235</v>
       </c>
       <c r="B42" t="n">
         <v>5</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="B43" t="n">
         <v>13</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45243</v>
+        <v>45249</v>
       </c>
       <c r="B44" t="n">
         <v>18</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45250</v>
+        <v>45256</v>
       </c>
       <c r="B45" t="n">
         <v>28</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="B46" t="n">
         <v>8</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45264</v>
+        <v>45270</v>
       </c>
       <c r="B47" t="n">
         <v>8</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45271</v>
+        <v>45277</v>
       </c>
       <c r="B48" t="n">
         <v>8</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45285</v>
+        <v>45291</v>
       </c>
       <c r="B49" t="n">
         <v>16</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B50" t="n">
         <v>6</v>
       </c>
-      <c r="C50" t="n">
-        <v>6</v>
+      <c r="C50" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45299</v>
+        <v>45305</v>
       </c>
       <c r="B51" t="n">
         <v>8</v>
       </c>
-      <c r="C51" t="n">
-        <v>6</v>
+      <c r="C51" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
       <c r="B52" t="n">
         <v>7</v>
       </c>
-      <c r="C52" t="n">
-        <v>6</v>
+      <c r="C52" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2" t="n">
         <v>45313</v>
       </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>6</v>
+      <c r="D53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2" t="n">
         <v>45320</v>
       </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B56" t="n">
         <v>5</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B58" t="n">
         <v>9</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B59" t="n">
         <v>12</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B60" t="n">
         <v>3</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B61" t="n">
         <v>4</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B62" t="n">
         <v>4</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B63" t="n">
         <v>9</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B64" t="n">
         <v>7</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B65" t="n">
         <v>3</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B66" t="n">
         <v>5</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45411</v>
+        <v>45417</v>
       </c>
       <c r="B67" t="n">
         <v>8</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45418</v>
+        <v>45424</v>
       </c>
       <c r="B68" t="n">
         <v>3</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45425</v>
+        <v>45431</v>
       </c>
       <c r="B69" t="n">
         <v>6</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="B70" t="n">
         <v>4</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B71" t="n">
         <v>4</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
+        <v>45452</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2" t="n">
         <v>45446</v>
       </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
+        <v>45459</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2" t="n">
         <v>45453</v>
       </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
+        <v>45466</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2" t="n">
         <v>45460</v>
       </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="n">
         <v>45467</v>
       </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>28</v>
+      <c r="D75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B76" t="n">
         <v>2</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B77" t="n">
         <v>5</v>
       </c>
-      <c r="C77" t="n">
-        <v>4</v>
+      <c r="C77" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B78" t="n">
         <v>4</v>
       </c>
-      <c r="C78" t="n">
-        <v>4</v>
+      <c r="C78" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B79" t="n">
         <v>5</v>
       </c>
-      <c r="C79" t="n">
-        <v>16</v>
+      <c r="C79" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B80" t="n">
         <v>5</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B81" t="n">
         <v>4</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B83" t="n">
         <v>5</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="n">
         <v>45530</v>
       </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
+        <v>45543</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2" t="n">
         <v>45537</v>
       </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
+        <v>45550</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
+        <v>45557</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2" t="n">
         <v>45551</v>
       </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="n">
         <v>45558</v>
       </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="n">
         <v>45565</v>
       </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
+        <v>45578</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2" t="n">
         <v>45572</v>
       </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
+        <v>45585</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="n">
         <v>45579</v>
       </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
+        <v>45592</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2" t="n">
         <v>45586</v>
       </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
+        <v>45599</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2" t="n">
         <v>45593</v>
       </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2" t="n">
         <v>45600</v>
       </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
+        <v>45613</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2" t="n">
         <v>45607</v>
       </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2" t="n">
         <v>45614</v>
       </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2" t="n">
         <v>45621</v>
       </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
+        <v>45634</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2" t="n">
         <v>45628</v>
       </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2" t="n">
         <v>45635</v>
       </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2" t="n">
         <v>45642</v>
       </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B6" t="n">
+        <v>28</v>
+      </c>
+      <c r="C6" t="n">
+        <v>366.6666666666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-85.71428571428572</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>13.57142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0BF73P6HY_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BF73P6HY_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1412 +453,1107 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44920</v>
+        <v>44920.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>68</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44914</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44955</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44962</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44969</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44976</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44990</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44997</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45004</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45011</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45005</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45018</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45025</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45019</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="C12" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45032</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45039</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="C14" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45046</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="C15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45053</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="C16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45060</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45067</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45074</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45081</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>8</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="C20" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45088</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>12</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="C21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45095</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>15</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45089</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45102</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>17</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45096</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45109</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>26</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45103</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45116</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>15</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45110</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45123</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>4</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45117</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="C26" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45130</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>17</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45124</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="C27" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45137</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45131</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="C28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45144</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>10</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45151</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>9</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="C30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45158</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>9</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45152</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="C31" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45165</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>8</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45172</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>10</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45179</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>10</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45186</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>7</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="C35" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45193</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="C36" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45200</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>6</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="C37" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45207</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>5</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45214</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>11</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+      <c r="C39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45221</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+      <c r="C40" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45228</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>6</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="C41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45235</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>5</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+      <c r="C42" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45242</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B43" t="n">
         <v>13</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+      <c r="C43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45249</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>18</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+      <c r="C44" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45256</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B45" t="n">
         <v>28</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+      <c r="C45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45263</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>8</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
+      <c r="C46" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45270</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>8</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+      <c r="C47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45277</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>8</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+      <c r="C48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45291</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>16</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45298</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>6</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+      <c r="C50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45305</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>8</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+      <c r="C51" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45312</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>7</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+      <c r="C52" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45319</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="C53" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45326</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>5</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B58" t="n">
         <v>9</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B59" t="n">
         <v>12</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B60" t="n">
         <v>3</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B61" t="n">
         <v>4</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="C61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B62" t="n">
         <v>4</v>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B63" t="n">
         <v>9</v>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D63" t="n">
+      <c r="C63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B64" t="n">
         <v>7</v>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B65" t="n">
         <v>3</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B66" t="n">
         <v>5</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="C66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B67" t="n">
         <v>8</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D67" t="n">
+      <c r="C67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B68" t="n">
         <v>3</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B69" t="n">
         <v>6</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D69" t="n">
+      <c r="C69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B70" t="n">
         <v>4</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D70" t="n">
+      <c r="C70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B71" t="n">
         <v>4</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="C71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="C72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D73" t="n">
+      <c r="C73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D74" t="n">
+      <c r="C74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
+      <c r="C75" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B76" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="C76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B77" t="n">
         <v>5</v>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
+      <c r="C77" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B78" t="n">
         <v>4</v>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
+      <c r="C78" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B79" t="n">
         <v>5</v>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
+      <c r="C79" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B80" t="n">
         <v>5</v>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="C80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B81" t="n">
         <v>4</v>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="C81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D82" t="n">
+      <c r="C82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5</v>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D83" t="n">
+      <c r="C83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
-      <c r="C84" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="C84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="C86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D87" t="n">
+      <c r="C87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D89" t="n">
+      <c r="C89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="C90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="C96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D97" t="n">
+      <c r="C97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
-      <c r="C98" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D98" t="n">
+      <c r="C98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="C99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="C100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="C101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1873,7 +1568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1900,10 +1595,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1911,78 +1606,496 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-77.77777777777779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45467</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>366.6666666666667</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45481</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>-85.71428571428572</v>
+        <v>-55.55555555555556</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45488</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45495</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-72.72727272727273</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C10" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>54</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-96.2962962962963</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>42</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.5263157894737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-95.23809523809523</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-71.42857142857143</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>46</v>
+      </c>
+      <c r="C22" t="n">
+        <v>27.77777777777777</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78</v>
+      </c>
+      <c r="C23" t="n">
+        <v>69.56521739130434</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>32</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-58.97435897435898</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>38</v>
+      </c>
+      <c r="C25" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>40</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.263157894736836</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>38</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-5.000000000000004</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-63.1578947368421</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>38</v>
+      </c>
+      <c r="C29" t="n">
+        <v>171.4285714285714</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-94.73684210526316</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+      <c r="C31" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-55.55555555555556</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-73.33333333333334</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-94.44444444444444</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>64</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-90.625</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>28</v>
+      </c>
+      <c r="C44" t="n">
+        <v>366.6666666666667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-85.71428571428572</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B47" t="n">
         <v>16</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C47" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2029,16 +2142,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76</v>
+        <v>906</v>
       </c>
       <c r="B2" t="n">
-        <v>9.5</v>
+        <v>19.69565217391304</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2182,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13.57142857142857</v>
+        <v>18.36521739130435</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0BF73P6HY_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BF73P6HY_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1250,6 +1250,14 @@
         <v>45655.99999999999</v>
       </c>
       <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1264,7 +1272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG116"/>
+  <dimension ref="A1:AG109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2027,7 +2035,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5OYUPFJV</t>
+          <t>477KI94T</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2095,7 +2103,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T7" s="2" t="n">
@@ -2144,7 +2152,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>477KI94T</t>
+          <t>4L8NLGRD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2193,16 +2201,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -2212,7 +2220,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T8" s="2" t="n">
@@ -2233,13 +2241,13 @@
         </is>
       </c>
       <c r="Y8" t="n">
-        <v>1310</v>
+        <v>9170</v>
       </c>
       <c r="Z8" t="n">
-        <v>1310</v>
+        <v>9170</v>
       </c>
       <c r="AA8" t="n">
-        <v>1310</v>
+        <v>9170</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -2261,7 +2269,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4L8NLGRD</t>
+          <t>5OYUPFJV</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2310,16 +2318,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -2329,7 +2337,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T9" s="2" t="n">
@@ -2350,13 +2358,13 @@
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>9170</v>
+        <v>1310</v>
       </c>
       <c r="Z9" t="n">
-        <v>9170</v>
+        <v>1310</v>
       </c>
       <c r="AA9" t="n">
-        <v>9170</v>
+        <v>1310</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -2378,7 +2386,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>72X6UDRN</t>
+          <t>1TYWU3ZV</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2427,10 +2435,10 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -2446,7 +2454,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T10" s="2" t="n">
@@ -2467,10 +2475,10 @@
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>2620</v>
+        <v>1310</v>
       </c>
       <c r="Z10" t="n">
-        <v>2620</v>
+        <v>1310</v>
       </c>
       <c r="AA10" t="n">
         <v>2620</v>
@@ -2479,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -2495,7 +2503,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1TYWU3ZV</t>
+          <t>77PGX25A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2553,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -2563,7 +2571,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T11" s="2" t="n">
@@ -2590,7 +2598,7 @@
         <v>1310</v>
       </c>
       <c r="AA11" t="n">
-        <v>2620</v>
+        <v>1310</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -2612,7 +2620,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>77PGX25A</t>
+          <t>72X6UDRN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2661,16 +2669,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -2680,7 +2688,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T12" s="2" t="n">
@@ -2701,19 +2709,19 @@
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>1310</v>
+        <v>2620</v>
       </c>
       <c r="Z12" t="n">
-        <v>1310</v>
+        <v>2620</v>
       </c>
       <c r="AA12" t="n">
-        <v>1310</v>
+        <v>2620</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>45001</v>
+        <v>45000</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -2846,7 +2854,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7CLB2TCG</t>
+          <t>7CW37LSJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2895,16 +2903,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -2914,7 +2922,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T14" s="2" t="n">
@@ -2935,13 +2943,13 @@
         </is>
       </c>
       <c r="Y14" t="n">
-        <v>1310</v>
+        <v>7860</v>
       </c>
       <c r="Z14" t="n">
-        <v>1310</v>
+        <v>7860</v>
       </c>
       <c r="AA14" t="n">
-        <v>1310</v>
+        <v>8515</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -3080,7 +3088,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7CW37LSJ</t>
+          <t>7CLB2TCG</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3129,16 +3137,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -3148,7 +3156,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T16" s="2" t="n">
@@ -3169,13 +3177,13 @@
         </is>
       </c>
       <c r="Y16" t="n">
-        <v>7860</v>
+        <v>1310</v>
       </c>
       <c r="Z16" t="n">
-        <v>7860</v>
+        <v>1310</v>
       </c>
       <c r="AA16" t="n">
-        <v>8515</v>
+        <v>1310</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -3665,7 +3673,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3HMCRLIE</t>
+          <t>3MEMU9VR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3714,16 +3722,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -3733,7 +3741,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T21" s="2" t="n">
@@ -3754,19 +3762,19 @@
         </is>
       </c>
       <c r="Y21" t="n">
-        <v>1310</v>
+        <v>3930</v>
       </c>
       <c r="Z21" t="n">
-        <v>1310</v>
+        <v>3930</v>
       </c>
       <c r="AA21" t="n">
-        <v>1965</v>
+        <v>3930</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
       </c>
       <c r="AC21" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -3782,7 +3790,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3MEMU9VR</t>
+          <t>3G8SRDES</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3831,16 +3839,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -3850,7 +3858,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T22" s="2" t="n">
@@ -3871,19 +3879,19 @@
         </is>
       </c>
       <c r="Y22" t="n">
-        <v>3930</v>
+        <v>28820</v>
       </c>
       <c r="Z22" t="n">
-        <v>3930</v>
+        <v>28820</v>
       </c>
       <c r="AA22" t="n">
-        <v>3930</v>
+        <v>28820</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>45036</v>
+        <v>45035</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -3899,7 +3907,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3G8SRDES</t>
+          <t>3HMCRLIE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3948,16 +3956,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -3967,7 +3975,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T23" s="2" t="n">
@@ -3988,13 +3996,13 @@
         </is>
       </c>
       <c r="Y23" t="n">
-        <v>28820</v>
+        <v>1310</v>
       </c>
       <c r="Z23" t="n">
-        <v>28820</v>
+        <v>1310</v>
       </c>
       <c r="AA23" t="n">
-        <v>28820</v>
+        <v>1965</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -4601,7 +4609,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>492SYA7M</t>
+          <t>1NXU8YPT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4650,26 +4658,26 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="N29" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T29" s="2" t="n">
@@ -4690,16 +4698,16 @@
         </is>
       </c>
       <c r="Y29" t="n">
-        <v>20960</v>
+        <v>6550</v>
       </c>
       <c r="Z29" t="n">
-        <v>20960</v>
+        <v>6550</v>
       </c>
       <c r="AA29" t="n">
-        <v>20305</v>
+        <v>6550</v>
       </c>
       <c r="AB29" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="2" t="n">
         <v>45076</v>
@@ -4718,7 +4726,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1NXU8YPT</t>
+          <t>492SYA7M</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4767,26 +4775,26 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T30" s="2" t="n">
@@ -4807,16 +4815,16 @@
         </is>
       </c>
       <c r="Y30" t="n">
-        <v>6550</v>
+        <v>20960</v>
       </c>
       <c r="Z30" t="n">
-        <v>6550</v>
+        <v>20960</v>
       </c>
       <c r="AA30" t="n">
-        <v>6550</v>
+        <v>20305</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="AC30" s="2" t="n">
         <v>45076</v>
@@ -4952,7 +4960,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1NJCGWOJ</t>
+          <t>42NIXW3R</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5020,7 +5028,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T32" s="2" t="n">
@@ -5186,7 +5194,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>42NIXW3R</t>
+          <t>1NJCGWOJ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5254,7 +5262,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T34" s="2" t="n">
@@ -5771,7 +5779,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5A8XRTQH</t>
+          <t>3APVU4YI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5780,7 +5788,7 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45112</v>
+        <v>45126</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5816,20 +5824,20 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
+          <t>IA - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -5839,14 +5847,14 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>SCK4</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T39" s="2" t="n">
-        <v>45112</v>
+        <v>45126</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>45117</v>
+        <v>45131</v>
       </c>
       <c r="V39" t="n">
         <v>1</v>
@@ -5860,19 +5868,19 @@
         </is>
       </c>
       <c r="Y39" t="n">
-        <v>1310</v>
+        <v>28820</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>28820</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>28820</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>45112</v>
+        <v>45125</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -5888,7 +5896,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5Q22T49V</t>
+          <t>3R2Y5C8K</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5897,7 +5905,7 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5933,20 +5941,20 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
+          <t>IQ - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -5956,14 +5964,14 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>SMF3</t>
+          <t>GYR2</t>
         </is>
       </c>
       <c r="T40" s="2" t="n">
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="V40" t="n">
         <v>1</v>
@@ -5977,19 +5985,19 @@
         </is>
       </c>
       <c r="Y40" t="n">
-        <v>6550</v>
+        <v>13100</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>3930</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>3930</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>45119</v>
+        <v>45125</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
@@ -6005,7 +6013,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6PDAKE4F</t>
+          <t>1DRT96BM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6014,7 +6022,7 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45119</v>
+        <v>45147</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -6050,20 +6058,20 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
+          <t>IQ - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -6073,14 +6081,14 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LAS1</t>
         </is>
       </c>
       <c r="T41" s="2" t="n">
-        <v>45119</v>
+        <v>45147</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>45124</v>
+        <v>45152</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -6094,19 +6102,19 @@
         </is>
       </c>
       <c r="Y41" t="n">
-        <v>19650</v>
+        <v>24890</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>16375</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>16375</v>
       </c>
       <c r="AB41" t="n">
         <v>0</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>45119</v>
+        <v>45146</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
@@ -6122,7 +6130,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6JSZR2JM</t>
+          <t>1ZOY81CH</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6131,7 +6139,7 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45119</v>
+        <v>45154</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -6167,20 +6175,20 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
+          <t>IA - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -6190,14 +6198,14 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T42" s="2" t="n">
-        <v>45119</v>
+        <v>45154</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>45124</v>
+        <v>45159</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -6211,19 +6219,19 @@
         </is>
       </c>
       <c r="Y42" t="n">
-        <v>3930</v>
+        <v>6550</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>6550</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>6550</v>
       </c>
       <c r="AB42" t="n">
         <v>0</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>45119</v>
+        <v>45153</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
@@ -6239,7 +6247,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3APVU4YI</t>
+          <t>3XE5SQLI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6248,7 +6256,7 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45126</v>
+        <v>45154</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6288,16 +6296,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -6307,14 +6315,14 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T43" s="2" t="n">
-        <v>45126</v>
+        <v>45154</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>45131</v>
+        <v>45159</v>
       </c>
       <c r="V43" t="n">
         <v>1</v>
@@ -6328,19 +6336,19 @@
         </is>
       </c>
       <c r="Y43" t="n">
-        <v>28820</v>
+        <v>19650</v>
       </c>
       <c r="Z43" t="n">
-        <v>28820</v>
+        <v>19650</v>
       </c>
       <c r="AA43" t="n">
-        <v>28820</v>
+        <v>19650</v>
       </c>
       <c r="AB43" t="n">
         <v>0</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>45125</v>
+        <v>45153</v>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
@@ -6356,7 +6364,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3R2Y5C8K</t>
+          <t>1P2SI6JH</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6365,7 +6373,7 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45126</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6405,16 +6413,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N44" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -6424,14 +6432,14 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>GYR2</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T44" s="2" t="n">
-        <v>45126</v>
+        <v>45182</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>45131</v>
+        <v>45187</v>
       </c>
       <c r="V44" t="n">
         <v>1</v>
@@ -6445,19 +6453,19 @@
         </is>
       </c>
       <c r="Y44" t="n">
-        <v>13100</v>
+        <v>7860</v>
       </c>
       <c r="Z44" t="n">
-        <v>3930</v>
+        <v>6550</v>
       </c>
       <c r="AA44" t="n">
-        <v>3930</v>
+        <v>6550</v>
       </c>
       <c r="AB44" t="n">
         <v>0</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>45125</v>
+        <v>45181</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
@@ -6473,7 +6481,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3T8HV8JC</t>
+          <t>2BHF3YFN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6482,7 +6490,7 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45126</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6518,20 +6526,20 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
+          <t>IA - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -6541,14 +6549,14 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T45" s="2" t="n">
-        <v>45126</v>
+        <v>45182</v>
       </c>
       <c r="U45" s="2" t="n">
-        <v>45131</v>
+        <v>45187</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -6562,19 +6570,19 @@
         </is>
       </c>
       <c r="Y45" t="n">
-        <v>9170</v>
+        <v>17030</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>17030</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>17030</v>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>45126</v>
+        <v>45181</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
@@ -6590,7 +6598,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>86F3MF6J</t>
+          <t>55RDJW2E</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6599,7 +6607,7 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45133</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6635,20 +6643,20 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
+          <t>IA - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -6658,14 +6666,14 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T46" s="2" t="n">
-        <v>45133</v>
+        <v>45189</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>45138</v>
+        <v>45194</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -6679,19 +6687,19 @@
         </is>
       </c>
       <c r="Y46" t="n">
-        <v>11790</v>
+        <v>3930</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>3930</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>3930</v>
       </c>
       <c r="AB46" t="n">
         <v>0</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>45133</v>
+        <v>45188</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -6707,7 +6715,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>34ON72AT</t>
+          <t>59GVR4RI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6716,7 +6724,7 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45133</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6752,20 +6760,20 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
+          <t>IA - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -6775,14 +6783,14 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T47" s="2" t="n">
-        <v>45133</v>
+        <v>45189</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>45138</v>
+        <v>45194</v>
       </c>
       <c r="V47" t="n">
         <v>1</v>
@@ -6796,19 +6804,19 @@
         </is>
       </c>
       <c r="Y47" t="n">
-        <v>9170</v>
+        <v>1310</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>1310</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>1310</v>
       </c>
       <c r="AB47" t="n">
         <v>0</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>45133</v>
+        <v>45188</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -6824,7 +6832,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1DRT96BM</t>
+          <t>7S9PEFTC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6833,7 +6841,7 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45147</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6869,20 +6877,20 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>IQ - Accepted: EDI Only</t>
+          <t>IA - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="N48" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -6892,14 +6900,14 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>LAS1</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T48" s="2" t="n">
-        <v>45147</v>
+        <v>45189</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>45152</v>
+        <v>45194</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
@@ -6913,19 +6921,19 @@
         </is>
       </c>
       <c r="Y48" t="n">
-        <v>24890</v>
+        <v>3930</v>
       </c>
       <c r="Z48" t="n">
-        <v>16375</v>
+        <v>3930</v>
       </c>
       <c r="AA48" t="n">
-        <v>16375</v>
+        <v>6550</v>
       </c>
       <c r="AB48" t="n">
         <v>0</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>45146</v>
+        <v>45188</v>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
@@ -6941,7 +6949,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3XE5SQLI</t>
+          <t>2BLYQLAL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6950,7 +6958,7 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45154</v>
+        <v>45196</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6990,16 +6998,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -7009,14 +7017,14 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>PHX6</t>
         </is>
       </c>
       <c r="T49" s="2" t="n">
-        <v>45154</v>
+        <v>45196</v>
       </c>
       <c r="U49" s="2" t="n">
-        <v>45159</v>
+        <v>45201</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
@@ -7030,19 +7038,19 @@
         </is>
       </c>
       <c r="Y49" t="n">
-        <v>19650</v>
+        <v>1310</v>
       </c>
       <c r="Z49" t="n">
-        <v>19650</v>
+        <v>1310</v>
       </c>
       <c r="AA49" t="n">
-        <v>19650</v>
+        <v>1310</v>
       </c>
       <c r="AB49" t="n">
         <v>0</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>45153</v>
+        <v>45204</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
@@ -7058,7 +7066,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1ZOY81CH</t>
+          <t>6DIFK8EK</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7067,7 +7075,7 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45154</v>
+        <v>45196</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -7107,16 +7115,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N50" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -7126,14 +7134,14 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>DAL2</t>
         </is>
       </c>
       <c r="T50" s="2" t="n">
-        <v>45154</v>
+        <v>45196</v>
       </c>
       <c r="U50" s="2" t="n">
-        <v>45159</v>
+        <v>45201</v>
       </c>
       <c r="V50" t="n">
         <v>1</v>
@@ -7147,19 +7155,19 @@
         </is>
       </c>
       <c r="Y50" t="n">
-        <v>6550</v>
+        <v>1310</v>
       </c>
       <c r="Z50" t="n">
-        <v>6550</v>
+        <v>1310</v>
       </c>
       <c r="AA50" t="n">
-        <v>6550</v>
+        <v>1310</v>
       </c>
       <c r="AB50" t="n">
         <v>0</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>45153</v>
+        <v>45209</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -7175,7 +7183,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1P2SI6JH</t>
+          <t>6OLZ6VJW</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7184,7 +7192,7 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45182</v>
+        <v>45196</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -7220,20 +7228,20 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>IQ - Accepted: EDI Only</t>
+          <t>IA - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -7243,14 +7251,14 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>RDG1</t>
         </is>
       </c>
       <c r="T51" s="2" t="n">
-        <v>45182</v>
+        <v>45196</v>
       </c>
       <c r="U51" s="2" t="n">
-        <v>45187</v>
+        <v>45201</v>
       </c>
       <c r="V51" t="n">
         <v>1</v>
@@ -7264,19 +7272,19 @@
         </is>
       </c>
       <c r="Y51" t="n">
-        <v>7860</v>
+        <v>2620</v>
       </c>
       <c r="Z51" t="n">
-        <v>6550</v>
+        <v>2620</v>
       </c>
       <c r="AA51" t="n">
-        <v>6550</v>
+        <v>2620</v>
       </c>
       <c r="AB51" t="n">
         <v>0</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>45181</v>
+        <v>45209</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -7292,7 +7300,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2BHF3YFN</t>
+          <t>3DGXLQ6Y</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7301,7 +7309,7 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45182</v>
+        <v>45196</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -7341,16 +7349,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N52" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -7360,14 +7368,14 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T52" s="2" t="n">
-        <v>45182</v>
+        <v>45196</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>45187</v>
+        <v>45201</v>
       </c>
       <c r="V52" t="n">
         <v>1</v>
@@ -7381,19 +7389,19 @@
         </is>
       </c>
       <c r="Y52" t="n">
-        <v>17030</v>
+        <v>7860</v>
       </c>
       <c r="Z52" t="n">
-        <v>17030</v>
+        <v>7860</v>
       </c>
       <c r="AA52" t="n">
-        <v>17030</v>
+        <v>7860</v>
       </c>
       <c r="AB52" t="n">
         <v>0</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>45181</v>
+        <v>45195</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
@@ -7409,7 +7417,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>55RDJW2E</t>
+          <t>6BNNY4JV</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7418,7 +7426,7 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45189</v>
+        <v>45196</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -7458,16 +7466,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N53" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -7481,10 +7489,10 @@
         </is>
       </c>
       <c r="T53" s="2" t="n">
-        <v>45189</v>
+        <v>45196</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>45194</v>
+        <v>45201</v>
       </c>
       <c r="V53" t="n">
         <v>1</v>
@@ -7498,19 +7506,19 @@
         </is>
       </c>
       <c r="Y53" t="n">
-        <v>3930</v>
+        <v>6550</v>
       </c>
       <c r="Z53" t="n">
-        <v>3930</v>
+        <v>6550</v>
       </c>
       <c r="AA53" t="n">
-        <v>3930</v>
+        <v>6550</v>
       </c>
       <c r="AB53" t="n">
         <v>0</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>45188</v>
+        <v>45195</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
@@ -7526,7 +7534,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>59GVR4RI</t>
+          <t>3CE6QAIP</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7535,7 +7543,7 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45189</v>
+        <v>45196</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7575,33 +7583,33 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T54" s="2" t="n">
-        <v>45189</v>
+        <v>45196</v>
       </c>
       <c r="U54" s="2" t="n">
-        <v>45194</v>
+        <v>45201</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
@@ -7615,19 +7623,19 @@
         </is>
       </c>
       <c r="Y54" t="n">
-        <v>1310</v>
+        <v>5240</v>
       </c>
       <c r="Z54" t="n">
-        <v>1310</v>
+        <v>5240</v>
       </c>
       <c r="AA54" t="n">
-        <v>1310</v>
+        <v>3275</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>45188</v>
+        <v>45195</v>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
@@ -7643,7 +7651,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7S9PEFTC</t>
+          <t>5OAALWVB</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7652,7 +7660,7 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45189</v>
+        <v>45210</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -7692,16 +7700,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
@@ -7711,14 +7719,14 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T55" s="2" t="n">
-        <v>45189</v>
+        <v>45210</v>
       </c>
       <c r="U55" s="2" t="n">
-        <v>45194</v>
+        <v>45215</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -7732,19 +7740,19 @@
         </is>
       </c>
       <c r="Y55" t="n">
-        <v>3930</v>
+        <v>1310</v>
       </c>
       <c r="Z55" t="n">
-        <v>3930</v>
+        <v>1310</v>
       </c>
       <c r="AA55" t="n">
-        <v>6550</v>
+        <v>1310</v>
       </c>
       <c r="AB55" t="n">
         <v>0</v>
       </c>
       <c r="AC55" s="2" t="n">
-        <v>45188</v>
+        <v>45209</v>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
@@ -7760,7 +7768,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6OLZ6VJW</t>
+          <t>8JPONM9R</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7769,7 +7777,7 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7809,16 +7817,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -7828,14 +7836,14 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>RDG1</t>
+          <t>HEA2</t>
         </is>
       </c>
       <c r="T56" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="U56" s="2" t="n">
-        <v>45201</v>
+        <v>45222</v>
       </c>
       <c r="V56" t="n">
         <v>1</v>
@@ -7849,19 +7857,19 @@
         </is>
       </c>
       <c r="Y56" t="n">
-        <v>2620</v>
+        <v>1310</v>
       </c>
       <c r="Z56" t="n">
-        <v>2620</v>
+        <v>1310</v>
       </c>
       <c r="AA56" t="n">
-        <v>2620</v>
+        <v>1310</v>
       </c>
       <c r="AB56" t="n">
         <v>0</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>45209</v>
+        <v>45223</v>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
@@ -7877,7 +7885,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3CE6QAIP</t>
+          <t>8P9YGXTK</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -7886,7 +7894,7 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7935,24 +7943,24 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>AFW1</t>
         </is>
       </c>
       <c r="T57" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="U57" s="2" t="n">
-        <v>45201</v>
+        <v>45222</v>
       </c>
       <c r="V57" t="n">
         <v>1</v>
@@ -7972,13 +7980,13 @@
         <v>5240</v>
       </c>
       <c r="AA57" t="n">
-        <v>3275</v>
+        <v>5240</v>
       </c>
       <c r="AB57" t="n">
-        <v>1965</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="2" t="n">
-        <v>45195</v>
+        <v>45221</v>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
@@ -7994,7 +8002,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6DIFK8EK</t>
+          <t>6ZQ76OAC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8003,7 +8011,7 @@
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -8062,14 +8070,14 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>DAL2</t>
+          <t>XPH4</t>
         </is>
       </c>
       <c r="T58" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="U58" s="2" t="n">
-        <v>45201</v>
+        <v>45222</v>
       </c>
       <c r="V58" t="n">
         <v>1</v>
@@ -8095,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="2" t="n">
-        <v>45209</v>
+        <v>45223</v>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
@@ -8111,7 +8119,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3DGXLQ6Y</t>
+          <t>3BFJLSOC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8120,7 +8128,7 @@
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -8160,16 +8168,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -8179,14 +8187,14 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>BNA3</t>
         </is>
       </c>
       <c r="T59" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="U59" s="2" t="n">
-        <v>45201</v>
+        <v>45222</v>
       </c>
       <c r="V59" t="n">
         <v>1</v>
@@ -8200,19 +8208,19 @@
         </is>
       </c>
       <c r="Y59" t="n">
-        <v>7860</v>
+        <v>1310</v>
       </c>
       <c r="Z59" t="n">
-        <v>7860</v>
+        <v>1310</v>
       </c>
       <c r="AA59" t="n">
-        <v>7860</v>
+        <v>1310</v>
       </c>
       <c r="AB59" t="n">
         <v>0</v>
       </c>
       <c r="AC59" s="2" t="n">
-        <v>45195</v>
+        <v>45222</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
@@ -8228,7 +8236,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6BNNY4JV</t>
+          <t>34SHX1GA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8237,7 +8245,7 @@
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -8277,16 +8285,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P60" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -8296,14 +8304,14 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>IND9</t>
         </is>
       </c>
       <c r="T60" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="U60" s="2" t="n">
-        <v>45201</v>
+        <v>45222</v>
       </c>
       <c r="V60" t="n">
         <v>1</v>
@@ -8317,19 +8325,19 @@
         </is>
       </c>
       <c r="Y60" t="n">
-        <v>6550</v>
+        <v>1310</v>
       </c>
       <c r="Z60" t="n">
-        <v>6550</v>
+        <v>1310</v>
       </c>
       <c r="AA60" t="n">
-        <v>6550</v>
+        <v>1310</v>
       </c>
       <c r="AB60" t="n">
         <v>0</v>
       </c>
       <c r="AC60" s="2" t="n">
-        <v>45195</v>
+        <v>45237</v>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
@@ -8345,7 +8353,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2BLYQLAL</t>
+          <t>3JWCVORT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8354,7 +8362,7 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8413,14 +8421,14 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>PHX6</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T61" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="U61" s="2" t="n">
-        <v>45201</v>
+        <v>45222</v>
       </c>
       <c r="V61" t="n">
         <v>1</v>
@@ -8446,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="2" t="n">
-        <v>45204</v>
+        <v>45216</v>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
@@ -8462,7 +8470,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5OAALWVB</t>
+          <t>2DFV5J6H</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8471,7 +8479,7 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45210</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8530,14 +8538,14 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>BNA3</t>
         </is>
       </c>
       <c r="T62" s="2" t="n">
-        <v>45210</v>
+        <v>45224</v>
       </c>
       <c r="U62" s="2" t="n">
-        <v>45215</v>
+        <v>45229</v>
       </c>
       <c r="V62" t="n">
         <v>1</v>
@@ -8563,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="2" t="n">
-        <v>45209</v>
+        <v>45236</v>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
@@ -8579,7 +8587,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>8P9YGXTK</t>
+          <t>2Z6RRYPC</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8588,7 +8596,7 @@
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8628,33 +8636,33 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>AFW1</t>
+          <t>MDW4</t>
         </is>
       </c>
       <c r="T63" s="2" t="n">
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="U63" s="2" t="n">
-        <v>45222</v>
+        <v>45229</v>
       </c>
       <c r="V63" t="n">
         <v>1</v>
@@ -8668,19 +8676,19 @@
         </is>
       </c>
       <c r="Y63" t="n">
-        <v>5240</v>
+        <v>1310</v>
       </c>
       <c r="Z63" t="n">
-        <v>5240</v>
+        <v>1310</v>
       </c>
       <c r="AA63" t="n">
-        <v>5240</v>
+        <v>1310</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>1310</v>
       </c>
       <c r="AC63" s="2" t="n">
-        <v>45221</v>
+        <v>45239</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -8696,7 +8704,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8JPONM9R</t>
+          <t>6EOFYTFQ</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8705,7 +8713,7 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -8764,14 +8772,14 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>HEA2</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T64" s="2" t="n">
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="U64" s="2" t="n">
-        <v>45222</v>
+        <v>45229</v>
       </c>
       <c r="V64" t="n">
         <v>1</v>
@@ -8813,7 +8821,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6ZQ76OAC</t>
+          <t>193SGKJP</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8822,7 +8830,7 @@
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8881,14 +8889,14 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>XPH4</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T65" s="2" t="n">
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="U65" s="2" t="n">
-        <v>45222</v>
+        <v>45229</v>
       </c>
       <c r="V65" t="n">
         <v>1</v>
@@ -8930,7 +8938,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3JWCVORT</t>
+          <t>8SPTHNVU</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -8939,7 +8947,7 @@
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45217</v>
+        <v>45231</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8979,16 +8987,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P66" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -8998,14 +9006,14 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>XPH4</t>
         </is>
       </c>
       <c r="T66" s="2" t="n">
-        <v>45217</v>
+        <v>45231</v>
       </c>
       <c r="U66" s="2" t="n">
-        <v>45222</v>
+        <v>45236</v>
       </c>
       <c r="V66" t="n">
         <v>1</v>
@@ -9019,19 +9027,19 @@
         </is>
       </c>
       <c r="Y66" t="n">
-        <v>1310</v>
+        <v>19650</v>
       </c>
       <c r="Z66" t="n">
-        <v>1310</v>
+        <v>19650</v>
       </c>
       <c r="AA66" t="n">
-        <v>1310</v>
+        <v>19650</v>
       </c>
       <c r="AB66" t="n">
         <v>0</v>
       </c>
       <c r="AC66" s="2" t="n">
-        <v>45216</v>
+        <v>45230</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
@@ -9047,7 +9055,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>34SHX1GA</t>
+          <t>54JNPLKS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9056,7 +9064,7 @@
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45217</v>
+        <v>45238</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -9115,14 +9123,14 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>IND9</t>
+          <t>HEA2</t>
         </is>
       </c>
       <c r="T67" s="2" t="n">
-        <v>45217</v>
+        <v>45238</v>
       </c>
       <c r="U67" s="2" t="n">
-        <v>45222</v>
+        <v>45244</v>
       </c>
       <c r="V67" t="n">
         <v>1</v>
@@ -9148,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
@@ -9164,7 +9172,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3BFJLSOC</t>
+          <t>2DY6DR5Z</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9173,7 +9181,7 @@
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45217</v>
+        <v>45238</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -9213,16 +9221,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -9232,14 +9240,14 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>BNA3</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T68" s="2" t="n">
-        <v>45217</v>
+        <v>45238</v>
       </c>
       <c r="U68" s="2" t="n">
-        <v>45222</v>
+        <v>45244</v>
       </c>
       <c r="V68" t="n">
         <v>1</v>
@@ -9253,19 +9261,19 @@
         </is>
       </c>
       <c r="Y68" t="n">
-        <v>1310</v>
+        <v>2620</v>
       </c>
       <c r="Z68" t="n">
-        <v>1310</v>
+        <v>2620</v>
       </c>
       <c r="AA68" t="n">
-        <v>1310</v>
+        <v>2620</v>
       </c>
       <c r="AB68" t="n">
         <v>0</v>
       </c>
       <c r="AC68" s="2" t="n">
-        <v>45222</v>
+        <v>45238</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
@@ -9281,7 +9289,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>193SGKJP</t>
+          <t>5BMWZ9JX</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9290,7 +9298,7 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45224</v>
+        <v>45238</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -9336,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -9353,10 +9361,10 @@
         </is>
       </c>
       <c r="T69" s="2" t="n">
-        <v>45224</v>
+        <v>45238</v>
       </c>
       <c r="U69" s="2" t="n">
-        <v>45229</v>
+        <v>45244</v>
       </c>
       <c r="V69" t="n">
         <v>1</v>
@@ -9382,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="2" t="n">
-        <v>45223</v>
+        <v>45238</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -9398,7 +9406,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2DFV5J6H</t>
+          <t>4TSUZJEL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9407,7 +9415,7 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45224</v>
+        <v>45245</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9453,7 +9461,7 @@
         <v>2</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P70" t="n">
         <v>2</v>
@@ -9466,14 +9474,14 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>BNA3</t>
+          <t>ABS4</t>
         </is>
       </c>
       <c r="T70" s="2" t="n">
-        <v>45224</v>
+        <v>45245</v>
       </c>
       <c r="U70" s="2" t="n">
-        <v>45229</v>
+        <v>45250</v>
       </c>
       <c r="V70" t="n">
         <v>1</v>
@@ -9499,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="2" t="n">
-        <v>45236</v>
+        <v>45244</v>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
@@ -9515,7 +9523,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2Z6RRYPC</t>
+          <t>65NUODDT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9524,7 +9532,7 @@
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45224</v>
+        <v>45252</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9576,21 +9584,21 @@
         <v>2</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>MDW4</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T71" s="2" t="n">
-        <v>45224</v>
+        <v>45252</v>
       </c>
       <c r="U71" s="2" t="n">
-        <v>45229</v>
+        <v>45259</v>
       </c>
       <c r="V71" t="n">
         <v>1</v>
@@ -9613,10 +9621,10 @@
         <v>1310</v>
       </c>
       <c r="AB71" t="n">
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="2" t="n">
-        <v>45239</v>
+        <v>45253</v>
       </c>
       <c r="AD71" t="inlineStr">
         <is>
@@ -9632,7 +9640,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6EOFYTFQ</t>
+          <t>26U93EEY</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -9641,7 +9649,7 @@
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45224</v>
+        <v>45259</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -9681,16 +9689,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -9704,10 +9712,10 @@
         </is>
       </c>
       <c r="T72" s="2" t="n">
-        <v>45224</v>
+        <v>45259</v>
       </c>
       <c r="U72" s="2" t="n">
-        <v>45229</v>
+        <v>45264</v>
       </c>
       <c r="V72" t="n">
         <v>1</v>
@@ -9721,19 +9729,19 @@
         </is>
       </c>
       <c r="Y72" t="n">
-        <v>1310</v>
+        <v>19650</v>
       </c>
       <c r="Z72" t="n">
-        <v>1310</v>
+        <v>19650</v>
       </c>
       <c r="AA72" t="n">
-        <v>1310</v>
+        <v>19650</v>
       </c>
       <c r="AB72" t="n">
         <v>0</v>
       </c>
       <c r="AC72" s="2" t="n">
-        <v>45223</v>
+        <v>45258</v>
       </c>
       <c r="AD72" t="inlineStr">
         <is>
@@ -9749,7 +9757,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>8SPTHNVU</t>
+          <t>8KFCZBBM</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -9758,7 +9766,7 @@
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45231</v>
+        <v>45259</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9798,16 +9806,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N73" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="O73" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="P73" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -9817,14 +9825,14 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>XPH4</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T73" s="2" t="n">
-        <v>45231</v>
+        <v>45259</v>
       </c>
       <c r="U73" s="2" t="n">
-        <v>45236</v>
+        <v>45264</v>
       </c>
       <c r="V73" t="n">
         <v>1</v>
@@ -9838,19 +9846,19 @@
         </is>
       </c>
       <c r="Y73" t="n">
-        <v>19650</v>
+        <v>3930</v>
       </c>
       <c r="Z73" t="n">
-        <v>19650</v>
+        <v>3930</v>
       </c>
       <c r="AA73" t="n">
-        <v>19650</v>
+        <v>3930</v>
       </c>
       <c r="AB73" t="n">
         <v>0</v>
       </c>
       <c r="AC73" s="2" t="n">
-        <v>45230</v>
+        <v>45258</v>
       </c>
       <c r="AD73" t="inlineStr">
         <is>
@@ -9866,7 +9874,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5BMWZ9JX</t>
+          <t>2OERGA8Q</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -9875,7 +9883,7 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45238</v>
+        <v>45266</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9938,10 +9946,10 @@
         </is>
       </c>
       <c r="T74" s="2" t="n">
-        <v>45238</v>
+        <v>45266</v>
       </c>
       <c r="U74" s="2" t="n">
-        <v>45244</v>
+        <v>45271</v>
       </c>
       <c r="V74" t="n">
         <v>1</v>
@@ -9967,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="2" t="n">
-        <v>45238</v>
+        <v>45265</v>
       </c>
       <c r="AD74" t="inlineStr">
         <is>
@@ -9983,7 +9991,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>54JNPLKS</t>
+          <t>71JDV3ZP</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -9992,7 +10000,7 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45238</v>
+        <v>45273</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -10032,16 +10040,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N75" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="O75" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P75" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -10051,14 +10059,14 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>HEA2</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T75" s="2" t="n">
-        <v>45238</v>
+        <v>45273</v>
       </c>
       <c r="U75" s="2" t="n">
-        <v>45244</v>
+        <v>45296</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -10072,19 +10080,19 @@
         </is>
       </c>
       <c r="Y75" t="n">
-        <v>1310</v>
+        <v>11790</v>
       </c>
       <c r="Z75" t="n">
-        <v>1310</v>
+        <v>11790</v>
       </c>
       <c r="AA75" t="n">
-        <v>1310</v>
+        <v>11790</v>
       </c>
       <c r="AB75" t="n">
         <v>0</v>
       </c>
       <c r="AC75" s="2" t="n">
-        <v>45238</v>
+        <v>45272</v>
       </c>
       <c r="AD75" t="inlineStr">
         <is>
@@ -10100,7 +10108,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2DY6DR5Z</t>
+          <t>758W3BPT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10109,7 +10117,7 @@
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45238</v>
+        <v>45273</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -10149,16 +10157,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="N76" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="O76" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -10168,14 +10176,14 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T76" s="2" t="n">
-        <v>45238</v>
+        <v>45273</v>
       </c>
       <c r="U76" s="2" t="n">
-        <v>45244</v>
+        <v>45296</v>
       </c>
       <c r="V76" t="n">
         <v>1</v>
@@ -10189,19 +10197,19 @@
         </is>
       </c>
       <c r="Y76" t="n">
-        <v>2620</v>
+        <v>26200</v>
       </c>
       <c r="Z76" t="n">
-        <v>2620</v>
+        <v>26200</v>
       </c>
       <c r="AA76" t="n">
-        <v>2620</v>
+        <v>26200</v>
       </c>
       <c r="AB76" t="n">
         <v>0</v>
       </c>
       <c r="AC76" s="2" t="n">
-        <v>45238</v>
+        <v>45272</v>
       </c>
       <c r="AD76" t="inlineStr">
         <is>
@@ -10217,7 +10225,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4TSUZJEL</t>
+          <t>4VGNX74D</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -10226,7 +10234,7 @@
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45245</v>
+        <v>45273</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -10266,16 +10274,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -10285,14 +10293,14 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>ABS4</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T77" s="2" t="n">
-        <v>45245</v>
+        <v>45273</v>
       </c>
       <c r="U77" s="2" t="n">
-        <v>45250</v>
+        <v>45296</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -10306,19 +10314,19 @@
         </is>
       </c>
       <c r="Y77" t="n">
-        <v>1310</v>
+        <v>3930</v>
       </c>
       <c r="Z77" t="n">
-        <v>1310</v>
+        <v>3930</v>
       </c>
       <c r="AA77" t="n">
-        <v>1310</v>
+        <v>3930</v>
       </c>
       <c r="AB77" t="n">
         <v>0</v>
       </c>
       <c r="AC77" s="2" t="n">
-        <v>45244</v>
+        <v>45272</v>
       </c>
       <c r="AD77" t="inlineStr">
         <is>
@@ -10334,7 +10342,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>65NUODDT</t>
+          <t>21Z7BZRK</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10343,7 +10351,7 @@
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45252</v>
+        <v>45294</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -10402,14 +10410,14 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T78" s="2" t="n">
-        <v>45252</v>
+        <v>45294</v>
       </c>
       <c r="U78" s="2" t="n">
-        <v>45259</v>
+        <v>45299</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -10435,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="2" t="n">
-        <v>45253</v>
+        <v>45297</v>
       </c>
       <c r="AD78" t="inlineStr">
         <is>
@@ -10451,7 +10459,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>8KFCZBBM</t>
+          <t>21Z7BZRK</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -10460,7 +10468,7 @@
         </is>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45259</v>
+        <v>45294</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -10500,16 +10508,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -10523,10 +10531,10 @@
         </is>
       </c>
       <c r="T79" s="2" t="n">
-        <v>45259</v>
+        <v>45294</v>
       </c>
       <c r="U79" s="2" t="n">
-        <v>45264</v>
+        <v>45299</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
@@ -10540,19 +10548,19 @@
         </is>
       </c>
       <c r="Y79" t="n">
-        <v>3930</v>
+        <v>1310</v>
       </c>
       <c r="Z79" t="n">
-        <v>3930</v>
+        <v>1310</v>
       </c>
       <c r="AA79" t="n">
-        <v>3930</v>
+        <v>1310</v>
       </c>
       <c r="AB79" t="n">
         <v>0</v>
       </c>
       <c r="AC79" s="2" t="n">
-        <v>45258</v>
+        <v>45297</v>
       </c>
       <c r="AD79" t="inlineStr">
         <is>
@@ -10568,7 +10576,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>26U93EEY</t>
+          <t>21Z7BZRK</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -10577,7 +10585,7 @@
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45259</v>
+        <v>45294</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -10617,16 +10625,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P80" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -10636,14 +10644,14 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T80" s="2" t="n">
-        <v>45259</v>
+        <v>45294</v>
       </c>
       <c r="U80" s="2" t="n">
-        <v>45264</v>
+        <v>45299</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -10657,19 +10665,19 @@
         </is>
       </c>
       <c r="Y80" t="n">
-        <v>19650</v>
+        <v>1310</v>
       </c>
       <c r="Z80" t="n">
-        <v>19650</v>
+        <v>1310</v>
       </c>
       <c r="AA80" t="n">
-        <v>19650</v>
+        <v>1310</v>
       </c>
       <c r="AB80" t="n">
         <v>0</v>
       </c>
       <c r="AC80" s="2" t="n">
-        <v>45258</v>
+        <v>45297</v>
       </c>
       <c r="AD80" t="inlineStr">
         <is>
@@ -10685,7 +10693,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2OERGA8Q</t>
+          <t>1T3QX7RR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -10694,7 +10702,7 @@
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45266</v>
+        <v>45301</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -10753,14 +10761,14 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T81" s="2" t="n">
-        <v>45266</v>
+        <v>45301</v>
       </c>
       <c r="U81" s="2" t="n">
-        <v>45271</v>
+        <v>45307</v>
       </c>
       <c r="V81" t="n">
         <v>1</v>
@@ -10786,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="AC81" s="2" t="n">
-        <v>45265</v>
+        <v>45304</v>
       </c>
       <c r="AD81" t="inlineStr">
         <is>
@@ -10802,7 +10810,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>71JDV3ZP</t>
+          <t>1T3QX7RR</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -10811,7 +10819,7 @@
         </is>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45273</v>
+        <v>45301</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -10851,16 +10859,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N82" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="O82" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P82" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -10870,14 +10878,14 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T82" s="2" t="n">
-        <v>45273</v>
+        <v>45301</v>
       </c>
       <c r="U82" s="2" t="n">
-        <v>45296</v>
+        <v>45307</v>
       </c>
       <c r="V82" t="n">
         <v>1</v>
@@ -10891,19 +10899,19 @@
         </is>
       </c>
       <c r="Y82" t="n">
-        <v>11790</v>
+        <v>1310</v>
       </c>
       <c r="Z82" t="n">
-        <v>11790</v>
+        <v>1310</v>
       </c>
       <c r="AA82" t="n">
-        <v>11790</v>
+        <v>1310</v>
       </c>
       <c r="AB82" t="n">
         <v>0</v>
       </c>
       <c r="AC82" s="2" t="n">
-        <v>45272</v>
+        <v>45304</v>
       </c>
       <c r="AD82" t="inlineStr">
         <is>
@@ -10919,7 +10927,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>758W3BPT</t>
+          <t>1T3QX7RR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -10928,7 +10936,7 @@
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45273</v>
+        <v>45301</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -10968,16 +10976,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="N83" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O83" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="P83" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -10987,14 +10995,14 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T83" s="2" t="n">
-        <v>45273</v>
+        <v>45301</v>
       </c>
       <c r="U83" s="2" t="n">
-        <v>45296</v>
+        <v>45307</v>
       </c>
       <c r="V83" t="n">
         <v>1</v>
@@ -11008,19 +11016,19 @@
         </is>
       </c>
       <c r="Y83" t="n">
-        <v>26200</v>
+        <v>1310</v>
       </c>
       <c r="Z83" t="n">
-        <v>26200</v>
+        <v>1310</v>
       </c>
       <c r="AA83" t="n">
-        <v>26200</v>
+        <v>1310</v>
       </c>
       <c r="AB83" t="n">
         <v>0</v>
       </c>
       <c r="AC83" s="2" t="n">
-        <v>45272</v>
+        <v>45304</v>
       </c>
       <c r="AD83" t="inlineStr">
         <is>
@@ -11036,7 +11044,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>4VGNX74D</t>
+          <t>2DUBU8WB</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -11045,7 +11053,7 @@
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45273</v>
+        <v>45308</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -11085,16 +11093,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -11104,14 +11112,14 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T84" s="2" t="n">
-        <v>45273</v>
+        <v>45308</v>
       </c>
       <c r="U84" s="2" t="n">
-        <v>45296</v>
+        <v>45313</v>
       </c>
       <c r="V84" t="n">
         <v>1</v>
@@ -11125,19 +11133,19 @@
         </is>
       </c>
       <c r="Y84" t="n">
-        <v>3930</v>
+        <v>1310</v>
       </c>
       <c r="Z84" t="n">
-        <v>3930</v>
+        <v>1310</v>
       </c>
       <c r="AA84" t="n">
-        <v>3930</v>
+        <v>1310</v>
       </c>
       <c r="AB84" t="n">
         <v>0</v>
       </c>
       <c r="AC84" s="2" t="n">
-        <v>45272</v>
+        <v>45311</v>
       </c>
       <c r="AD84" t="inlineStr">
         <is>
@@ -11153,7 +11161,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>21Z7BZRK</t>
+          <t>2DUBU8WB</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -11162,7 +11170,7 @@
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45294</v>
+        <v>45308</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -11221,14 +11229,14 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T85" s="2" t="n">
-        <v>45294</v>
+        <v>45308</v>
       </c>
       <c r="U85" s="2" t="n">
-        <v>45299</v>
+        <v>45313</v>
       </c>
       <c r="V85" t="n">
         <v>1</v>
@@ -11254,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="2" t="n">
-        <v>45297</v>
+        <v>45311</v>
       </c>
       <c r="AD85" t="inlineStr">
         <is>
@@ -11270,7 +11278,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>21Z7BZRK</t>
+          <t>2DUBU8WB</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -11279,7 +11287,7 @@
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45294</v>
+        <v>45308</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -11338,14 +11346,14 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T86" s="2" t="n">
-        <v>45294</v>
+        <v>45308</v>
       </c>
       <c r="U86" s="2" t="n">
-        <v>45299</v>
+        <v>45313</v>
       </c>
       <c r="V86" t="n">
         <v>1</v>
@@ -11371,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="AC86" s="2" t="n">
-        <v>45297</v>
+        <v>45311</v>
       </c>
       <c r="AD86" t="inlineStr">
         <is>
@@ -11387,7 +11395,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>21Z7BZRK</t>
+          <t>6B28P6IW</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -11396,7 +11404,7 @@
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45294</v>
+        <v>45315</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -11455,14 +11463,14 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T87" s="2" t="n">
-        <v>45294</v>
+        <v>45315</v>
       </c>
       <c r="U87" s="2" t="n">
-        <v>45299</v>
+        <v>45320</v>
       </c>
       <c r="V87" t="n">
         <v>1</v>
@@ -11488,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="2" t="n">
-        <v>45297</v>
+        <v>45318</v>
       </c>
       <c r="AD87" t="inlineStr">
         <is>
@@ -11504,7 +11512,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1T3QX7RR</t>
+          <t>6B28P6IW</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -11513,7 +11521,7 @@
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -11572,14 +11580,14 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T88" s="2" t="n">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="U88" s="2" t="n">
-        <v>45307</v>
+        <v>45320</v>
       </c>
       <c r="V88" t="n">
         <v>1</v>
@@ -11605,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="AC88" s="2" t="n">
-        <v>45304</v>
+        <v>45318</v>
       </c>
       <c r="AD88" t="inlineStr">
         <is>
@@ -11621,7 +11629,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1T3QX7RR</t>
+          <t>6B28P6IW</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -11630,7 +11638,7 @@
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -11689,14 +11697,14 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T89" s="2" t="n">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="U89" s="2" t="n">
-        <v>45307</v>
+        <v>45320</v>
       </c>
       <c r="V89" t="n">
         <v>1</v>
@@ -11722,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="AC89" s="2" t="n">
-        <v>45304</v>
+        <v>45318</v>
       </c>
       <c r="AD89" t="inlineStr">
         <is>
@@ -11738,7 +11746,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1T3QX7RR</t>
+          <t>1TAOGWKK</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -11747,7 +11755,7 @@
         </is>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45301</v>
+        <v>45469</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -11806,20 +11814,20 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T90" s="2" t="n">
-        <v>45301</v>
+        <v>45469</v>
       </c>
       <c r="U90" s="2" t="n">
-        <v>45307</v>
+        <v>45474</v>
       </c>
       <c r="V90" t="n">
         <v>1</v>
       </c>
       <c r="W90" t="n">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -11827,19 +11835,19 @@
         </is>
       </c>
       <c r="Y90" t="n">
-        <v>1310</v>
+        <v>1220</v>
       </c>
       <c r="Z90" t="n">
-        <v>1310</v>
+        <v>1220</v>
       </c>
       <c r="AA90" t="n">
-        <v>1310</v>
+        <v>1220</v>
       </c>
       <c r="AB90" t="n">
         <v>0</v>
       </c>
       <c r="AC90" s="2" t="n">
-        <v>45304</v>
+        <v>45468</v>
       </c>
       <c r="AD90" t="inlineStr">
         <is>
@@ -11847,7 +11855,9 @@
         </is>
       </c>
       <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="inlineStr"/>
+      <c r="AF90" s="2" t="n">
+        <v>45489</v>
+      </c>
       <c r="AG90" t="n">
         <v>89</v>
       </c>
@@ -11855,7 +11865,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2DUBU8WB</t>
+          <t>32ZNHCYH</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -11864,7 +11874,7 @@
         </is>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45308</v>
+        <v>45469</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -11904,16 +11914,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
@@ -11923,20 +11933,20 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T91" s="2" t="n">
-        <v>45308</v>
+        <v>45469</v>
       </c>
       <c r="U91" s="2" t="n">
-        <v>45313</v>
+        <v>45474</v>
       </c>
       <c r="V91" t="n">
         <v>1</v>
       </c>
       <c r="W91" t="n">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -11944,19 +11954,19 @@
         </is>
       </c>
       <c r="Y91" t="n">
-        <v>1310</v>
+        <v>2440</v>
       </c>
       <c r="Z91" t="n">
-        <v>1310</v>
+        <v>2440</v>
       </c>
       <c r="AA91" t="n">
-        <v>1310</v>
+        <v>2440</v>
       </c>
       <c r="AB91" t="n">
         <v>0</v>
       </c>
       <c r="AC91" s="2" t="n">
-        <v>45311</v>
+        <v>45468</v>
       </c>
       <c r="AD91" t="inlineStr">
         <is>
@@ -11964,7 +11974,9 @@
         </is>
       </c>
       <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="inlineStr"/>
+      <c r="AF91" s="2" t="n">
+        <v>45489</v>
+      </c>
       <c r="AG91" t="n">
         <v>90</v>
       </c>
@@ -11972,7 +11984,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2DUBU8WB</t>
+          <t>1JQ4BKTK</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -11981,7 +11993,7 @@
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45308</v>
+        <v>45469</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -12021,16 +12033,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O92" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P92" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
@@ -12040,20 +12052,20 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T92" s="2" t="n">
-        <v>45308</v>
+        <v>45469</v>
       </c>
       <c r="U92" s="2" t="n">
-        <v>45313</v>
+        <v>45474</v>
       </c>
       <c r="V92" t="n">
         <v>1</v>
       </c>
       <c r="W92" t="n">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -12061,19 +12073,19 @@
         </is>
       </c>
       <c r="Y92" t="n">
-        <v>1310</v>
+        <v>3660</v>
       </c>
       <c r="Z92" t="n">
-        <v>1310</v>
+        <v>3660</v>
       </c>
       <c r="AA92" t="n">
-        <v>1310</v>
+        <v>3660</v>
       </c>
       <c r="AB92" t="n">
         <v>0</v>
       </c>
       <c r="AC92" s="2" t="n">
-        <v>45311</v>
+        <v>45468</v>
       </c>
       <c r="AD92" t="inlineStr">
         <is>
@@ -12081,7 +12093,9 @@
         </is>
       </c>
       <c r="AE92" t="inlineStr"/>
-      <c r="AF92" t="inlineStr"/>
+      <c r="AF92" s="2" t="n">
+        <v>45489</v>
+      </c>
       <c r="AG92" t="n">
         <v>91</v>
       </c>
@@ -12089,7 +12103,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2DUBU8WB</t>
+          <t>8TERR34T</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -12098,7 +12112,7 @@
         </is>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45308</v>
+        <v>45469</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -12157,20 +12171,20 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>LAS1</t>
         </is>
       </c>
       <c r="T93" s="2" t="n">
-        <v>45308</v>
+        <v>45469</v>
       </c>
       <c r="U93" s="2" t="n">
-        <v>45313</v>
+        <v>45474</v>
       </c>
       <c r="V93" t="n">
         <v>1</v>
       </c>
       <c r="W93" t="n">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -12178,19 +12192,19 @@
         </is>
       </c>
       <c r="Y93" t="n">
-        <v>1310</v>
+        <v>1220</v>
       </c>
       <c r="Z93" t="n">
-        <v>1310</v>
+        <v>1220</v>
       </c>
       <c r="AA93" t="n">
-        <v>1310</v>
+        <v>1220</v>
       </c>
       <c r="AB93" t="n">
         <v>0</v>
       </c>
       <c r="AC93" s="2" t="n">
-        <v>45311</v>
+        <v>45468</v>
       </c>
       <c r="AD93" t="inlineStr">
         <is>
@@ -12198,7 +12212,9 @@
         </is>
       </c>
       <c r="AE93" t="inlineStr"/>
-      <c r="AF93" t="inlineStr"/>
+      <c r="AF93" s="2" t="n">
+        <v>45489</v>
+      </c>
       <c r="AG93" t="n">
         <v>92</v>
       </c>
@@ -12206,7 +12222,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>6B28P6IW</t>
+          <t>32ZNHCYH</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -12215,7 +12231,7 @@
         </is>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45315</v>
+        <v>45469</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -12255,16 +12271,16 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -12274,20 +12290,20 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T94" s="2" t="n">
-        <v>45315</v>
+        <v>45469</v>
       </c>
       <c r="U94" s="2" t="n">
-        <v>45320</v>
+        <v>45474</v>
       </c>
       <c r="V94" t="n">
         <v>1</v>
       </c>
       <c r="W94" t="n">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -12295,19 +12311,19 @@
         </is>
       </c>
       <c r="Y94" t="n">
-        <v>1310</v>
+        <v>2440</v>
       </c>
       <c r="Z94" t="n">
-        <v>1310</v>
+        <v>2440</v>
       </c>
       <c r="AA94" t="n">
-        <v>1310</v>
+        <v>2440</v>
       </c>
       <c r="AB94" t="n">
         <v>0</v>
       </c>
       <c r="AC94" s="2" t="n">
-        <v>45318</v>
+        <v>45468</v>
       </c>
       <c r="AD94" t="inlineStr">
         <is>
@@ -12315,7 +12331,9 @@
         </is>
       </c>
       <c r="AE94" t="inlineStr"/>
-      <c r="AF94" t="inlineStr"/>
+      <c r="AF94" s="2" t="n">
+        <v>45489</v>
+      </c>
       <c r="AG94" t="n">
         <v>93</v>
       </c>
@@ -12323,7 +12341,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6B28P6IW</t>
+          <t>1JQ4BKTK</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -12332,7 +12350,7 @@
         </is>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45315</v>
+        <v>45469</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -12372,16 +12390,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
@@ -12391,20 +12409,20 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T95" s="2" t="n">
-        <v>45315</v>
+        <v>45469</v>
       </c>
       <c r="U95" s="2" t="n">
-        <v>45320</v>
+        <v>45474</v>
       </c>
       <c r="V95" t="n">
         <v>1</v>
       </c>
       <c r="W95" t="n">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -12412,19 +12430,19 @@
         </is>
       </c>
       <c r="Y95" t="n">
-        <v>1310</v>
+        <v>3660</v>
       </c>
       <c r="Z95" t="n">
-        <v>1310</v>
+        <v>3660</v>
       </c>
       <c r="AA95" t="n">
-        <v>1310</v>
+        <v>3660</v>
       </c>
       <c r="AB95" t="n">
         <v>0</v>
       </c>
       <c r="AC95" s="2" t="n">
-        <v>45318</v>
+        <v>45468</v>
       </c>
       <c r="AD95" t="inlineStr">
         <is>
@@ -12432,7 +12450,9 @@
         </is>
       </c>
       <c r="AE95" t="inlineStr"/>
-      <c r="AF95" t="inlineStr"/>
+      <c r="AF95" s="2" t="n">
+        <v>45489</v>
+      </c>
       <c r="AG95" t="n">
         <v>94</v>
       </c>
@@ -12440,7 +12460,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6B28P6IW</t>
+          <t>1TAOGWKK</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -12449,7 +12469,7 @@
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>45315</v>
+        <v>45469</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -12508,20 +12528,20 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T96" s="2" t="n">
-        <v>45315</v>
+        <v>45469</v>
       </c>
       <c r="U96" s="2" t="n">
-        <v>45320</v>
+        <v>45474</v>
       </c>
       <c r="V96" t="n">
         <v>1</v>
       </c>
       <c r="W96" t="n">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -12529,19 +12549,19 @@
         </is>
       </c>
       <c r="Y96" t="n">
-        <v>1310</v>
+        <v>1220</v>
       </c>
       <c r="Z96" t="n">
-        <v>1310</v>
+        <v>1220</v>
       </c>
       <c r="AA96" t="n">
-        <v>1310</v>
+        <v>1220</v>
       </c>
       <c r="AB96" t="n">
         <v>0</v>
       </c>
       <c r="AC96" s="2" t="n">
-        <v>45318</v>
+        <v>45468</v>
       </c>
       <c r="AD96" t="inlineStr">
         <is>
@@ -12549,7 +12569,9 @@
         </is>
       </c>
       <c r="AE96" t="inlineStr"/>
-      <c r="AF96" t="inlineStr"/>
+      <c r="AF96" s="2" t="n">
+        <v>45489</v>
+      </c>
       <c r="AG96" t="n">
         <v>95</v>
       </c>
@@ -12557,7 +12579,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1TAOGWKK</t>
+          <t>8TERR34T</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -12625,7 +12647,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAS1</t>
         </is>
       </c>
       <c r="T97" s="2" t="n">
@@ -12676,7 +12698,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>32ZNHCYH</t>
+          <t>3QYVTBVF</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -12685,7 +12707,7 @@
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>45469</v>
+        <v>45483</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -12725,16 +12747,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -12744,14 +12766,14 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T98" s="2" t="n">
-        <v>45469</v>
+        <v>45483</v>
       </c>
       <c r="U98" s="2" t="n">
-        <v>45474</v>
+        <v>45489</v>
       </c>
       <c r="V98" t="n">
         <v>1</v>
@@ -12765,19 +12787,19 @@
         </is>
       </c>
       <c r="Y98" t="n">
-        <v>2440</v>
+        <v>1220</v>
       </c>
       <c r="Z98" t="n">
-        <v>2440</v>
+        <v>1220</v>
       </c>
       <c r="AA98" t="n">
-        <v>2440</v>
+        <v>1220</v>
       </c>
       <c r="AB98" t="n">
         <v>0</v>
       </c>
       <c r="AC98" s="2" t="n">
-        <v>45468</v>
+        <v>45482</v>
       </c>
       <c r="AD98" t="inlineStr">
         <is>
@@ -12786,7 +12808,7 @@
       </c>
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" s="2" t="n">
-        <v>45489</v>
+        <v>45504</v>
       </c>
       <c r="AG98" t="n">
         <v>97</v>
@@ -12795,7 +12817,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1JQ4BKTK</t>
+          <t>3QYVTBVF</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -12804,7 +12826,7 @@
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>45469</v>
+        <v>45483</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -12844,16 +12866,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
@@ -12863,14 +12885,14 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T99" s="2" t="n">
-        <v>45469</v>
+        <v>45483</v>
       </c>
       <c r="U99" s="2" t="n">
-        <v>45474</v>
+        <v>45489</v>
       </c>
       <c r="V99" t="n">
         <v>1</v>
@@ -12884,19 +12906,19 @@
         </is>
       </c>
       <c r="Y99" t="n">
-        <v>3660</v>
+        <v>1220</v>
       </c>
       <c r="Z99" t="n">
-        <v>3660</v>
+        <v>1220</v>
       </c>
       <c r="AA99" t="n">
-        <v>3660</v>
+        <v>1220</v>
       </c>
       <c r="AB99" t="n">
         <v>0</v>
       </c>
       <c r="AC99" s="2" t="n">
-        <v>45468</v>
+        <v>45482</v>
       </c>
       <c r="AD99" t="inlineStr">
         <is>
@@ -12905,7 +12927,7 @@
       </c>
       <c r="AE99" t="inlineStr"/>
       <c r="AF99" s="2" t="n">
-        <v>45489</v>
+        <v>45504</v>
       </c>
       <c r="AG99" t="n">
         <v>98</v>
@@ -12914,7 +12936,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>8TERR34T</t>
+          <t>3TI7HJBP</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -12923,7 +12945,7 @@
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>45469</v>
+        <v>45490</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -12982,14 +13004,14 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>LAS1</t>
+          <t>RDU2</t>
         </is>
       </c>
       <c r="T100" s="2" t="n">
-        <v>45469</v>
+        <v>45490</v>
       </c>
       <c r="U100" s="2" t="n">
-        <v>45474</v>
+        <v>45495</v>
       </c>
       <c r="V100" t="n">
         <v>1</v>
@@ -13015,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="AC100" s="2" t="n">
-        <v>45468</v>
+        <v>45496</v>
       </c>
       <c r="AD100" t="inlineStr">
         <is>
@@ -13024,7 +13046,7 @@
       </c>
       <c r="AE100" t="inlineStr"/>
       <c r="AF100" s="2" t="n">
-        <v>45489</v>
+        <v>45510</v>
       </c>
       <c r="AG100" t="n">
         <v>99</v>
@@ -13033,7 +13055,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>32ZNHCYH</t>
+          <t>3TI7HJBP</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -13042,7 +13064,7 @@
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>45469</v>
+        <v>45490</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -13082,16 +13104,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
@@ -13101,14 +13123,14 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>RDU2</t>
         </is>
       </c>
       <c r="T101" s="2" t="n">
-        <v>45469</v>
+        <v>45490</v>
       </c>
       <c r="U101" s="2" t="n">
-        <v>45474</v>
+        <v>45495</v>
       </c>
       <c r="V101" t="n">
         <v>1</v>
@@ -13122,19 +13144,19 @@
         </is>
       </c>
       <c r="Y101" t="n">
-        <v>2440</v>
+        <v>1220</v>
       </c>
       <c r="Z101" t="n">
-        <v>2440</v>
+        <v>1220</v>
       </c>
       <c r="AA101" t="n">
-        <v>2440</v>
+        <v>1220</v>
       </c>
       <c r="AB101" t="n">
         <v>0</v>
       </c>
       <c r="AC101" s="2" t="n">
-        <v>45468</v>
+        <v>45496</v>
       </c>
       <c r="AD101" t="inlineStr">
         <is>
@@ -13143,7 +13165,7 @@
       </c>
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" s="2" t="n">
-        <v>45489</v>
+        <v>45510</v>
       </c>
       <c r="AG101" t="n">
         <v>100</v>
@@ -13152,7 +13174,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1JQ4BKTK</t>
+          <t>5QVZLIGN</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -13161,7 +13183,7 @@
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>45469</v>
+        <v>45497</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -13201,16 +13223,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
@@ -13220,14 +13242,14 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T102" s="2" t="n">
-        <v>45469</v>
+        <v>45497</v>
       </c>
       <c r="U102" s="2" t="n">
-        <v>45474</v>
+        <v>45502</v>
       </c>
       <c r="V102" t="n">
         <v>1</v>
@@ -13241,19 +13263,19 @@
         </is>
       </c>
       <c r="Y102" t="n">
-        <v>3660</v>
+        <v>1220</v>
       </c>
       <c r="Z102" t="n">
-        <v>3660</v>
+        <v>1220</v>
       </c>
       <c r="AA102" t="n">
-        <v>3660</v>
+        <v>1220</v>
       </c>
       <c r="AB102" t="n">
         <v>0</v>
       </c>
       <c r="AC102" s="2" t="n">
-        <v>45468</v>
+        <v>45496</v>
       </c>
       <c r="AD102" t="inlineStr">
         <is>
@@ -13262,7 +13284,7 @@
       </c>
       <c r="AE102" t="inlineStr"/>
       <c r="AF102" s="2" t="n">
-        <v>45489</v>
+        <v>45517</v>
       </c>
       <c r="AG102" t="n">
         <v>101</v>
@@ -13271,7 +13293,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1TAOGWKK</t>
+          <t>5Q4ZUU9H</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -13280,7 +13302,7 @@
         </is>
       </c>
       <c r="C103" s="2" t="n">
-        <v>45469</v>
+        <v>45497</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -13339,14 +13361,14 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T103" s="2" t="n">
-        <v>45469</v>
+        <v>45497</v>
       </c>
       <c r="U103" s="2" t="n">
-        <v>45474</v>
+        <v>45502</v>
       </c>
       <c r="V103" t="n">
         <v>1</v>
@@ -13372,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="AC103" s="2" t="n">
-        <v>45468</v>
+        <v>45496</v>
       </c>
       <c r="AD103" t="inlineStr">
         <is>
@@ -13381,7 +13403,7 @@
       </c>
       <c r="AE103" t="inlineStr"/>
       <c r="AF103" s="2" t="n">
-        <v>45489</v>
+        <v>45517</v>
       </c>
       <c r="AG103" t="n">
         <v>102</v>
@@ -13390,7 +13412,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>8TERR34T</t>
+          <t>2OL2PGFP</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -13399,7 +13421,7 @@
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>45469</v>
+        <v>45497</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -13458,14 +13480,14 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>LAS1</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T104" s="2" t="n">
-        <v>45469</v>
+        <v>45497</v>
       </c>
       <c r="U104" s="2" t="n">
-        <v>45474</v>
+        <v>45502</v>
       </c>
       <c r="V104" t="n">
         <v>1</v>
@@ -13491,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="AC104" s="2" t="n">
-        <v>45468</v>
+        <v>45496</v>
       </c>
       <c r="AD104" t="inlineStr">
         <is>
@@ -13500,7 +13522,7 @@
       </c>
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" s="2" t="n">
-        <v>45489</v>
+        <v>45517</v>
       </c>
       <c r="AG104" t="n">
         <v>103</v>
@@ -13509,7 +13531,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3QYVTBVF</t>
+          <t>3TJJKNAW</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -13518,7 +13540,7 @@
         </is>
       </c>
       <c r="C105" s="2" t="n">
-        <v>45483</v>
+        <v>45497</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -13577,14 +13599,14 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T105" s="2" t="n">
-        <v>45483</v>
+        <v>45497</v>
       </c>
       <c r="U105" s="2" t="n">
-        <v>45489</v>
+        <v>45502</v>
       </c>
       <c r="V105" t="n">
         <v>1</v>
@@ -13610,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="AC105" s="2" t="n">
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="AD105" t="inlineStr">
         <is>
@@ -13619,7 +13641,7 @@
       </c>
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" s="2" t="n">
-        <v>45504</v>
+        <v>45517</v>
       </c>
       <c r="AG105" t="n">
         <v>104</v>
@@ -13628,7 +13650,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3QYVTBVF</t>
+          <t>5QVZLIGN</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -13637,7 +13659,7 @@
         </is>
       </c>
       <c r="C106" s="2" t="n">
-        <v>45483</v>
+        <v>45497</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -13700,10 +13722,10 @@
         </is>
       </c>
       <c r="T106" s="2" t="n">
-        <v>45483</v>
+        <v>45497</v>
       </c>
       <c r="U106" s="2" t="n">
-        <v>45489</v>
+        <v>45502</v>
       </c>
       <c r="V106" t="n">
         <v>1</v>
@@ -13729,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="AC106" s="2" t="n">
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="AD106" t="inlineStr">
         <is>
@@ -13738,7 +13760,7 @@
       </c>
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" s="2" t="n">
-        <v>45504</v>
+        <v>45517</v>
       </c>
       <c r="AG106" t="n">
         <v>105</v>
@@ -13747,7 +13769,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3TI7HJBP</t>
+          <t>3TJJKNAW</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -13756,7 +13778,7 @@
         </is>
       </c>
       <c r="C107" s="2" t="n">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -13815,14 +13837,14 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>RDU2</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T107" s="2" t="n">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="U107" s="2" t="n">
-        <v>45495</v>
+        <v>45502</v>
       </c>
       <c r="V107" t="n">
         <v>1</v>
@@ -13857,7 +13879,7 @@
       </c>
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" s="2" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="AG107" t="n">
         <v>106</v>
@@ -13866,7 +13888,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3TI7HJBP</t>
+          <t>2OL2PGFP</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -13875,7 +13897,7 @@
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -13934,14 +13956,14 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>RDU2</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T108" s="2" t="n">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="U108" s="2" t="n">
-        <v>45495</v>
+        <v>45502</v>
       </c>
       <c r="V108" t="n">
         <v>1</v>
@@ -13976,7 +13998,7 @@
       </c>
       <c r="AE108" t="inlineStr"/>
       <c r="AF108" s="2" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="AG108" t="n">
         <v>107</v>
@@ -13985,7 +14007,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>5QVZLIGN</t>
+          <t>5Q4ZUU9H</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -14053,7 +14075,7 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T109" s="2" t="n">
@@ -14099,839 +14121,6 @@
       </c>
       <c r="AG109" t="n">
         <v>108</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>5Q4ZUU9H</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>GIGABYTE X670E AORUS Xtreme (AM5/ LGA 1718/ AMD/ X670E/ EATX/ 5 Year Warranty/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel WiFi 6E/ AQUANTIA 10GbE LAN/Q-Flash Plus/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>B0BF73P6HY</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>IA - Accepted: EDI Only</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>2</v>
-      </c>
-      <c r="N110" t="n">
-        <v>2</v>
-      </c>
-      <c r="O110" t="n">
-        <v>2</v>
-      </c>
-      <c r="P110" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>0</v>
-      </c>
-      <c r="R110" t="n">
-        <v>0</v>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>LGB8</t>
-        </is>
-      </c>
-      <c r="T110" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="U110" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="V110" t="n">
-        <v>1</v>
-      </c>
-      <c r="W110" t="n">
-        <v>610</v>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y110" t="n">
-        <v>1220</v>
-      </c>
-      <c r="Z110" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AA110" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AB110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC110" s="2" t="n">
-        <v>45496</v>
-      </c>
-      <c r="AD110" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE110" t="inlineStr"/>
-      <c r="AF110" s="2" t="n">
-        <v>45517</v>
-      </c>
-      <c r="AG110" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2OL2PGFP</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>GIGABYTE X670E AORUS Xtreme (AM5/ LGA 1718/ AMD/ X670E/ EATX/ 5 Year Warranty/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel WiFi 6E/ AQUANTIA 10GbE LAN/Q-Flash Plus/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>B0BF73P6HY</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>IA - Accepted: EDI Only</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>2</v>
-      </c>
-      <c r="N111" t="n">
-        <v>2</v>
-      </c>
-      <c r="O111" t="n">
-        <v>2</v>
-      </c>
-      <c r="P111" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0</v>
-      </c>
-      <c r="R111" t="n">
-        <v>0</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>SBD1</t>
-        </is>
-      </c>
-      <c r="T111" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="U111" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="V111" t="n">
-        <v>1</v>
-      </c>
-      <c r="W111" t="n">
-        <v>610</v>
-      </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y111" t="n">
-        <v>1220</v>
-      </c>
-      <c r="Z111" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AA111" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AB111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC111" s="2" t="n">
-        <v>45496</v>
-      </c>
-      <c r="AD111" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE111" t="inlineStr"/>
-      <c r="AF111" s="2" t="n">
-        <v>45517</v>
-      </c>
-      <c r="AG111" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>3TJJKNAW</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>GIGABYTE X670E AORUS Xtreme (AM5/ LGA 1718/ AMD/ X670E/ EATX/ 5 Year Warranty/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel WiFi 6E/ AQUANTIA 10GbE LAN/Q-Flash Plus/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>B0BF73P6HY</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>IA - Accepted: EDI Only</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>2</v>
-      </c>
-      <c r="N112" t="n">
-        <v>2</v>
-      </c>
-      <c r="O112" t="n">
-        <v>2</v>
-      </c>
-      <c r="P112" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0</v>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>SBD1</t>
-        </is>
-      </c>
-      <c r="T112" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="U112" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="V112" t="n">
-        <v>1</v>
-      </c>
-      <c r="W112" t="n">
-        <v>610</v>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y112" t="n">
-        <v>1220</v>
-      </c>
-      <c r="Z112" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AA112" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC112" s="2" t="n">
-        <v>45496</v>
-      </c>
-      <c r="AD112" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE112" t="inlineStr"/>
-      <c r="AF112" s="2" t="n">
-        <v>45517</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>5QVZLIGN</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>GIGABYTE X670E AORUS Xtreme (AM5/ LGA 1718/ AMD/ X670E/ EATX/ 5 Year Warranty/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel WiFi 6E/ AQUANTIA 10GbE LAN/Q-Flash Plus/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>B0BF73P6HY</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>IA - Accepted: EDI Only</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>2</v>
-      </c>
-      <c r="N113" t="n">
-        <v>2</v>
-      </c>
-      <c r="O113" t="n">
-        <v>2</v>
-      </c>
-      <c r="P113" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R113" t="n">
-        <v>0</v>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>GYR3</t>
-        </is>
-      </c>
-      <c r="T113" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="U113" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="V113" t="n">
-        <v>1</v>
-      </c>
-      <c r="W113" t="n">
-        <v>610</v>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y113" t="n">
-        <v>1220</v>
-      </c>
-      <c r="Z113" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AA113" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC113" s="2" t="n">
-        <v>45496</v>
-      </c>
-      <c r="AD113" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE113" t="inlineStr"/>
-      <c r="AF113" s="2" t="n">
-        <v>45517</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>3TJJKNAW</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>GIGABYTE X670E AORUS Xtreme (AM5/ LGA 1718/ AMD/ X670E/ EATX/ 5 Year Warranty/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel WiFi 6E/ AQUANTIA 10GbE LAN/Q-Flash Plus/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>B0BF73P6HY</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>IA - Accepted: EDI Only</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>2</v>
-      </c>
-      <c r="N114" t="n">
-        <v>2</v>
-      </c>
-      <c r="O114" t="n">
-        <v>2</v>
-      </c>
-      <c r="P114" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0</v>
-      </c>
-      <c r="R114" t="n">
-        <v>0</v>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>SBD1</t>
-        </is>
-      </c>
-      <c r="T114" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="U114" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="V114" t="n">
-        <v>1</v>
-      </c>
-      <c r="W114" t="n">
-        <v>610</v>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y114" t="n">
-        <v>1220</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC114" s="2" t="n">
-        <v>45496</v>
-      </c>
-      <c r="AD114" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE114" t="inlineStr"/>
-      <c r="AF114" s="2" t="n">
-        <v>45517</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2OL2PGFP</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>GIGABYTE X670E AORUS Xtreme (AM5/ LGA 1718/ AMD/ X670E/ EATX/ 5 Year Warranty/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel WiFi 6E/ AQUANTIA 10GbE LAN/Q-Flash Plus/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>B0BF73P6HY</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>IA - Accepted: EDI Only</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>2</v>
-      </c>
-      <c r="N115" t="n">
-        <v>2</v>
-      </c>
-      <c r="O115" t="n">
-        <v>2</v>
-      </c>
-      <c r="P115" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0</v>
-      </c>
-      <c r="R115" t="n">
-        <v>0</v>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>SBD1</t>
-        </is>
-      </c>
-      <c r="T115" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="U115" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="V115" t="n">
-        <v>1</v>
-      </c>
-      <c r="W115" t="n">
-        <v>610</v>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y115" t="n">
-        <v>1220</v>
-      </c>
-      <c r="Z115" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC115" s="2" t="n">
-        <v>45496</v>
-      </c>
-      <c r="AD115" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE115" t="inlineStr"/>
-      <c r="AF115" s="2" t="n">
-        <v>45517</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>5Q4ZUU9H</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>GIGABYTE X670E AORUS Xtreme (AM5/ LGA 1718/ AMD/ X670E/ EATX/ 5 Year Warranty/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel WiFi 6E/ AQUANTIA 10GbE LAN/Q-Flash Plus/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>B0BF73P6HY</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>X670E AORUS XTREME</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>IA - Accepted: EDI Only</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>2</v>
-      </c>
-      <c r="N116" t="n">
-        <v>2</v>
-      </c>
-      <c r="O116" t="n">
-        <v>2</v>
-      </c>
-      <c r="P116" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>0</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0</v>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>LGB8</t>
-        </is>
-      </c>
-      <c r="T116" s="2" t="n">
-        <v>45497</v>
-      </c>
-      <c r="U116" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="V116" t="n">
-        <v>1</v>
-      </c>
-      <c r="W116" t="n">
-        <v>610</v>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y116" t="n">
-        <v>1220</v>
-      </c>
-      <c r="Z116" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AA116" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AB116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC116" s="2" t="n">
-        <v>45496</v>
-      </c>
-      <c r="AD116" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE116" t="inlineStr"/>
-      <c r="AF116" s="2" t="n">
-        <v>45517</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -14945,7 +14134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15099,7 +14288,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -15121,7 +14310,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -15143,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -15165,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -15187,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -15198,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -15209,7 +14398,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -15220,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -15242,7 +14431,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -15253,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -15319,7 +14508,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -15330,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -15341,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -15473,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -15484,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -15632,21 +14821,21 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45112</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -15654,43 +14843,43 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45119</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -15698,76 +14887,76 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45126</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45126</v>
+        <v>45147</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45126</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45154</v>
       </c>
       <c r="B71" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45133</v>
+        <v>45154</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45133</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C73" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -15775,7 +14964,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B75" t="n">
         <v>10</v>
@@ -15786,87 +14975,87 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45147</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C76" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45182</v>
       </c>
       <c r="B77" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45154</v>
+        <v>45182</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45154</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45189</v>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45189</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45189</v>
       </c>
       <c r="B82" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -15874,76 +15063,76 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45182</v>
+        <v>45196</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45182</v>
+        <v>45196</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45196</v>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45189</v>
+        <v>45196</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45189</v>
+        <v>45196</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45189</v>
+        <v>45196</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B90" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -15951,62 +15140,62 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45196</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45196</v>
+        <v>45210</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45196</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -16017,29 +15206,29 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45217</v>
       </c>
       <c r="B97" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45217</v>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45210</v>
+        <v>45217</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -16050,10 +15239,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B100" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -16061,18 +15250,18 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -16083,7 +15272,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -16094,7 +15283,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -16105,32 +15294,32 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45217</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45217</v>
+        <v>45231</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B107" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -16138,7 +15327,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45224</v>
+        <v>45238</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -16149,18 +15338,18 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45224</v>
+        <v>45238</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45224</v>
+        <v>45238</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -16171,87 +15360,87 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45224</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45245</v>
       </c>
       <c r="B112" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45231</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C113" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45252</v>
       </c>
       <c r="B114" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45238</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45238</v>
+        <v>45259</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45238</v>
+        <v>45259</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B118" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -16259,7 +15448,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45245</v>
+        <v>45266</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -16270,10 +15459,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B120" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -16281,54 +15470,54 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45252</v>
+        <v>45273</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45273</v>
       </c>
       <c r="B122" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45259</v>
+        <v>45273</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45259</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B125" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -16336,7 +15525,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45266</v>
+        <v>45294</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -16347,84 +15536,84 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45294</v>
       </c>
       <c r="B127" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45273</v>
+        <v>45294</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45273</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C129" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45273</v>
+        <v>45301</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45301</v>
       </c>
       <c r="B131" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45291.99999999999</v>
+        <v>45301</v>
       </c>
       <c r="B132" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45294</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45294</v>
+        <v>45308</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -16435,7 +15624,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45294</v>
+        <v>45308</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -16446,29 +15635,29 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45308</v>
       </c>
       <c r="B136" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45301</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -16479,7 +15668,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -16490,54 +15679,54 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45315</v>
       </c>
       <c r="B140" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45308</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45308</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45308</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B144" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -16545,43 +15734,43 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45315</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45315</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45315</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -16589,10 +15778,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -16600,10 +15789,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -16611,10 +15800,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45340.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B151" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -16622,10 +15811,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -16633,10 +15822,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B153" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -16644,10 +15833,10 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B154" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -16655,10 +15844,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B155" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -16666,10 +15855,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B156" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -16677,10 +15866,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B157" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -16688,10 +15877,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B158" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -16699,10 +15888,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -16710,10 +15899,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -16721,10 +15910,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B161" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -16732,10 +15921,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B162" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -16743,79 +15932,79 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45469</v>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45469</v>
       </c>
       <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
         <v>6</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45469</v>
       </c>
       <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
         <v>4</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45469</v>
       </c>
       <c r="B166" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45469</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45469</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45469</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -16831,29 +16020,29 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45469</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45469</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C172" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45469</v>
+        <v>45483</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -16864,29 +16053,29 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45469</v>
+        <v>45483</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45469</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45469</v>
+        <v>45490</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -16897,7 +16086,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45469</v>
+        <v>45490</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -16908,10 +16097,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -16919,18 +16108,18 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45497</v>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45483</v>
+        <v>45497</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -16941,7 +16130,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45483</v>
+        <v>45497</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -16952,18 +16141,18 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45497</v>
       </c>
       <c r="B182" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -16974,7 +16163,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -16985,13 +16174,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45497</v>
       </c>
       <c r="B185" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -17007,87 +16196,87 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45497</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45497</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45497</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45497</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45497</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45497</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45497</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B194" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -17095,10 +16284,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B195" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -17106,10 +16295,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B196" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -17117,10 +16306,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -17128,10 +16317,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B198" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -17139,7 +16328,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -17150,7 +16339,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -17161,7 +16350,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -17172,7 +16361,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -17183,7 +16372,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -17194,7 +16383,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -17205,7 +16394,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -17216,7 +16405,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
@@ -17227,7 +16416,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B207" t="n">
         <v>0</v>
@@ -17238,7 +16427,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -17249,7 +16438,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B209" t="n">
         <v>0</v>
@@ -17260,78 +16449,12 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45613.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
-        <v>45620.99999999999</v>
-      </c>
-      <c r="B211" t="n">
-        <v>0</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
-        <v>45627.99999999999</v>
-      </c>
-      <c r="B212" t="n">
-        <v>0</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
-        <v>45634.99999999999</v>
-      </c>
-      <c r="B213" t="n">
-        <v>0</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
-        <v>45641.99999999999</v>
-      </c>
-      <c r="B214" t="n">
-        <v>0</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
-        <v>45648.99999999999</v>
-      </c>
-      <c r="B215" t="n">
-        <v>0</v>
-      </c>
-      <c r="C215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
-        <v>45655.99999999999</v>
-      </c>
-      <c r="B216" t="n">
-        <v>0</v>
-      </c>
-      <c r="C216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17378,10 +16501,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>906</v>
+        <v>812</v>
       </c>
       <c r="B2" t="n">
-        <v>7.878260869565217</v>
+        <v>7.518518518518518</v>
       </c>
       <c r="C2" t="n">
         <v>44</v>
@@ -17418,7 +16541,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.556979405034324</v>
+        <v>3.197646244375218</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0BF73P6HY_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BF73P6HY_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,6 +1258,14 @@
         <v>45662.99999999999</v>
       </c>
       <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14134,7 +14142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16455,6 +16463,17 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0BF73P6HY_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BF73P6HY_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1266,6 +1266,14 @@
         <v>45669.99999999999</v>
       </c>
       <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14142,7 +14150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14725,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -14736,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -15044,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -15055,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -15957,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -15968,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166">
@@ -15990,7 +15998,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -16001,7 +16009,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169">
@@ -16474,6 +16482,17 @@
         <v>0</v>
       </c>
       <c r="C211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
         <v>0</v>
       </c>
     </row>
